--- a/ig/ch-emed-epr/ValueSet-ch-emed-epr-amount-quantity-unit-code.xlsx
+++ b/ig/ch-emed-epr/ValueSet-ch-emed-epr-amount-quantity-unit-code.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
-    <sheet name="Include from UCUM" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="208">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.0.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-26T09:56:16+01:00</t>
+    <t>2025-01-21T11:06:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -73,7 +73,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>CARA (https://www.cara.ch)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -119,6 +119,12 @@
     <t>Ampule (unit of presentation)</t>
   </si>
   <si>
+    <t>413568008</t>
+  </si>
+  <si>
+    <t>Application - unit of product usage (qualifier value)</t>
+  </si>
+  <si>
     <t>732980001</t>
   </si>
   <si>
@@ -431,6 +437,12 @@
     <t>Unit</t>
   </si>
   <si>
+    <t>246205007</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -440,6 +452,30 @@
     <t>http://snomed.info/sct</t>
   </si>
   <si>
+    <t>Bq</t>
+  </si>
+  <si>
+    <t>Becquerel</t>
+  </si>
+  <si>
+    <t>kBq</t>
+  </si>
+  <si>
+    <t>kiloBecquerel</t>
+  </si>
+  <si>
+    <t>MBq</t>
+  </si>
+  <si>
+    <t>megaBecquerel</t>
+  </si>
+  <si>
+    <t>GBq</t>
+  </si>
+  <si>
+    <t>gigaBecquerel</t>
+  </si>
+  <si>
     <t>%</t>
   </si>
   <si>
@@ -494,6 +530,12 @@
     <t>milliequivalent</t>
   </si>
   <si>
+    <t>nmol</t>
+  </si>
+  <si>
+    <t>nanomole</t>
+  </si>
+  <si>
     <t>umol</t>
   </si>
   <si>
@@ -576,12 +618,6 @@
   </si>
   <si>
     <t>Parts Per Million</t>
-  </si>
-  <si>
-    <t>{Piece}</t>
-  </si>
-  <si>
-    <t>Piece</t>
   </si>
   <si>
     <t>[tsp_m]</t>
@@ -871,7 +907,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1326,15 +1362,31 @@
         <v>138</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1344,7 +1396,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1364,234 +1416,266 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>138</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>139</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>195</v>
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="B31" t="s" s="2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-emed-epr/ValueSet-ch-emed-epr-amount-quantity-unit-code.xlsx
+++ b/ig/ch-emed-epr/ValueSet-ch-emed-epr-amount-quantity-unit-code.xlsx
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +61,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-21T11:06:41+00:00</t>
+    <t>2026-02-11T07:11:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
